--- a/xlsx/社会问题_intext.xlsx
+++ b/xlsx/社会问题_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%8E%E5%A4%9A</t>
   </si>
   <si>
-    <t>人口過多</t>
+    <t>人口过多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E9%BE%84%E5%8C%96</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E5%AF%8C%E6%87%B8%E6%AE%8A</t>
   </si>
   <si>
-    <t>貧富懸殊</t>
+    <t>贫富悬殊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%86%9C%E9%97%AE%E9%A2%98</t>
@@ -89,19 +89,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E8%80%85</t>
   </si>
   <si>
-    <t>社會學者</t>
+    <t>社会学者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>新聞媒體</t>
+    <t>新闻媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE</t>
   </si>
   <si>
-    <t>大眾</t>
+    <t>大众</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
